--- a/ebayAutomation/Data/Login.xlsx
+++ b/ebayAutomation/Data/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A5841-EA17-404F-9410-D4EAE6407631}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C2D624-C850-42B5-AEF0-7D98439C4C98}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17124" windowHeight="3216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Test@123</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>iphone 6</t>
   </si>
 </sst>
 </file>
@@ -376,7 +382,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,7 +399,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -401,6 +409,9 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
